--- a/output/sites/test_differences_sites_nut_scat_per_site.xlsx
+++ b/output/sites/test_differences_sites_nut_scat_per_site.xlsx
@@ -383,10 +383,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.911</v>
+        <v>0.644</v>
       </c>
       <c r="B2" t="n">
-        <v>0.589</v>
+        <v>0.044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -395,10 +395,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.883</v>
+        <v>0.531</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/test_differences_sites_nut_scat_per_site.xlsx
+++ b/output/sites/test_differences_sites_nut_scat_per_site.xlsx
@@ -383,10 +383,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.644</v>
+        <v>0.688</v>
       </c>
       <c r="B2" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -398,7 +398,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.531</v>
+        <v>0.676</v>
       </c>
     </row>
   </sheetData>
